--- a/IFAircraftData.xlsx
+++ b/IFAircraftData.xlsx
@@ -58,7 +58,7 @@
     <t>Verison:</t>
   </si>
   <si>
-    <t>24.2-0</t>
+    <t>24.2-1</t>
   </si>
   <si>
     <t>Load</t>
@@ -950,7 +950,7 @@
     <t>https://community.infiniteflight.com/t/a380-profiles-guide/880161</t>
   </si>
   <si>
-    <t>AviatorAlex, nicopizarro, ToasterStroodie, RickG</t>
+    <t>AviatorAlex, NJ24, ToasterStroodie, RickG</t>
   </si>
   <si>
     <t>https://community.infiniteflight.com/t/a380-update-your-ultimate-guide-to-infinite-flight-fuel-burn-fuel-calculator/721974#airbus-a380-800-a388-17</t>

--- a/IFAircraftData.xlsx
+++ b/IFAircraftData.xlsx
@@ -935,13 +935,13 @@
     <t>FL430</t>
   </si>
   <si>
+    <t xml:space="preserve">FL360 (100%-81%), FL380 (80%-21%), 
+FL420 (20%-0%)
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">FL350 (100%-91%), FL370 (90%-41%), 
 FL410 (40%-11%), FL430 (10%-0%).
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FL360 (100%-81%), FL380 (80%-21%), 
-FL420 (20%-0%)
 </t>
   </si>
   <si>
@@ -4359,7 +4359,6 @@
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="7"/>

--- a/IFAircraftData.xlsx
+++ b/IFAircraftData.xlsx
@@ -1080,14 +1080,14 @@
     <t>3,500 nm</t>
   </si>
   <si>
-    <t>1 – 250
+    <t xml:space="preserve">1 – 250 (Rec: 220) 
 2 – 250
-5 – 250
+5 – 250 (Rec: 200) 
 10 – 210
-15 – 200
+15 – 200 (Rec: 180) 
 25 – 190
-30 – 175
-40 – 166</t>
+30 – 175 (Rec: VRef + 15) 
+40 – 166 (Rec: VRef + 15) </t>
   </si>
   <si>
     <t>0.79</t>
